--- a/model/results/triet_method_Small_Digital_Music_5_1_factors8.xlsx
+++ b/model/results/triet_method_Small_Digital_Music_5_1_factors8.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,13 +432,32 @@
           <t>RSME Test</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MAE Test</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.8528</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5768</v>
+        <v>0.5746</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3422</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.8542</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3207</v>
       </c>
     </row>
   </sheetData>
